--- a/Case/CS4/calculation.xlsx
+++ b/Case/CS4/calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Income Statement" sheetId="3" r:id="rId3"/>
     <sheet name="EPS,ROE,Market-to-Book" sheetId="4" r:id="rId4"/>
     <sheet name="Interest Coverage, D to E" sheetId="5" r:id="rId5"/>
+    <sheet name="Total CF" sheetId="6" r:id="rId6"/>
+    <sheet name="Equity Value, Price, MV, EV(Mkt" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="cash">Sheet1!$C$7</definedName>
@@ -36,11 +38,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Repurchase</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>New Debt</t>
   </si>
   <si>
@@ -198,6 +203,15 @@
   </si>
   <si>
     <t>Debt/Equity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Outstanding Shares</t>
+  </si>
+  <si>
+    <t>EnterPrise Value</t>
   </si>
 </sst>
 </file>
@@ -295,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,11 +324,13 @@
     <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +626,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>5.0999999999999997E-2</v>
@@ -618,7 +634,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>0.30756086084350798</v>
@@ -626,7 +642,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>6.7199999999999996E-2</v>
@@ -635,13 +651,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>100000</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <f>C6 * C4</f>
@@ -650,7 +666,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>-200000</v>
@@ -676,19 +692,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="8">
         <v>2006</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>8</v>
+      <c r="A2" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="5">
         <v>66557</v>
@@ -699,8 +715,8 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>9</v>
+      <c r="A3" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="5">
         <v>164309</v>
@@ -713,7 +729,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
         <v>48780.310104166703</v>
@@ -725,7 +741,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
         <v>54874.283750000002</v>
@@ -737,7 +753,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>5157</v>
@@ -749,7 +765,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="9">
         <f>SUM(B2:B6)</f>
@@ -769,7 +785,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5">
         <f>174321.428717212</f>
@@ -783,7 +799,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5">
         <v>38281</v>
@@ -795,7 +811,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5">
         <v>39973</v>
@@ -807,7 +823,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9">
         <f>SUM(B9:B11)+B7</f>
@@ -827,7 +843,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -835,7 +851,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5">
         <v>31935.556124999999</v>
@@ -847,7 +863,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5">
         <v>27760.973624999999</v>
@@ -859,7 +875,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5">
         <v>16884.3606</v>
@@ -871,7 +887,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="9">
         <f>SUM(B15:B17)</f>
@@ -890,8 +906,8 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>28</v>
+      <c r="A20" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10">
@@ -902,7 +918,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5">
         <v>4814</v>
@@ -914,7 +930,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5">
         <v>22495.184271264399</v>
@@ -926,7 +942,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="9">
         <f>SUM(B18:B22)</f>
@@ -939,8 +955,8 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>26</v>
+      <c r="A24" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B24" s="11">
         <v>488362.87757515302</v>
@@ -952,7 +968,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="9">
         <f>B23+B24</f>
@@ -984,18 +1000,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="13">
         <v>2006</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="9">
         <v>342251.25</v>
@@ -1006,7 +1022,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="11">
         <v>249793.5</v>
@@ -1017,7 +1033,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" ref="B4:C4" si="0">B2-B3</f>
@@ -1030,7 +1046,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5">
         <v>28512</v>
@@ -1041,7 +1057,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9">
         <f>B4-SUM(B5:B5)</f>
@@ -1054,7 +1070,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5">
         <f>9914</f>
@@ -1067,7 +1083,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" ref="B8:C8" si="1">B6+B7</f>
@@ -1085,7 +1101,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="9">
         <f t="shared" ref="B10:C10" si="2">B6</f>
@@ -1098,7 +1114,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5">
         <v>13505.661</v>
@@ -1110,16 +1126,16 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="16">
+        <v>45</v>
+      </c>
+      <c r="C12" s="17">
         <f>interest</f>
         <v>6720</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="9">
         <f>B10+B11</f>
@@ -1132,7 +1148,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5">
         <f>Sheet1!$C$3*B13</f>
@@ -1145,7 +1161,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9">
         <f t="shared" ref="B15:C15" si="3">B13-B14</f>
@@ -1158,7 +1174,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5">
         <v>28345</v>
@@ -1187,7 +1203,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1200,12 +1216,12 @@
         <v>2006</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <f>'Income Statement'!B15</f>
@@ -1218,7 +1234,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>59052.08333333335</v>
@@ -1229,20 +1245,20 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="17">
+        <v>47</v>
+      </c>
+      <c r="B4" s="18">
         <f>B2 / B3</f>
         <v>0.90818791365185769</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <f>C2 / C3</f>
         <v>0.97043352457344523</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <f>'Income Statement'!B15</f>
@@ -1255,7 +1271,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
         <f>'Balance Sheet'!B24</f>
@@ -1268,20 +1284,20 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="17">
+        <v>49</v>
+      </c>
+      <c r="B8" s="18">
         <f>B6 / B7</f>
         <v>0.10981667694642208</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="18">
         <f>C6 / C7</f>
         <v>0.21700485755068435</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
         <v>959596.35416666698</v>
@@ -1292,7 +1308,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
         <f>'Balance Sheet'!B24</f>
@@ -1305,13 +1321,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="17">
+        <v>51</v>
+      </c>
+      <c r="B12" s="18">
         <f>B10 / B11</f>
         <v>1.9649248504130967</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="18">
         <f>C10 / C11</f>
         <v>3.9622414437909916</v>
       </c>
@@ -1325,7 +1341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1337,12 +1355,12 @@
         <v>2006</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <f>'Income Statement'!B8</f>
@@ -1355,7 +1373,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1367,16 +1385,16 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="17">
+        <v>52</v>
+      </c>
+      <c r="C4" s="18">
         <f>C2 / C3</f>
         <v>10.991034226190477</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1">
         <f>'Balance Sheet'!B20 - 'Balance Sheet'!B3 - 'Balance Sheet'!B2</f>
@@ -1389,7 +1407,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
         <f>'Balance Sheet'!B24</f>
@@ -1402,15 +1420,208 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="18">
+        <v>54</v>
+      </c>
+      <c r="B8" s="19">
         <f>B6 / B7</f>
         <v>-0.47273453941935334</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="19">
         <f>C6 / C7</f>
         <v>0.36702560976972187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="13">
+        <v>2006</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="14">
+        <f>'Income Statement'!B15</f>
+        <v>53630.388359295655</v>
+      </c>
+      <c r="C2" s="14">
+        <f>'Income Statement'!C15</f>
+        <v>40875.659416033071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="14">
+        <f>'Income Statement'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <f>'Income Statement'!C12</f>
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="14">
+        <f>SUM(B2:B3)</f>
+        <v>53630.388359295655</v>
+      </c>
+      <c r="C4" s="14">
+        <f>SUM(C2:C3)</f>
+        <v>47595.659416033071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="13">
+        <v>2006</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <f>B4 / B3</f>
+        <v>16.25</v>
+      </c>
+      <c r="C2" s="20">
+        <f>C4 / C3</f>
+        <v>17.71892100899629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1">
+        <f>'EPS,ROE,Market-to-Book'!B3</f>
+        <v>59052.08333333335</v>
+      </c>
+      <c r="C3" s="1">
+        <f>'EPS,ROE,Market-to-Book'!C3</f>
+        <v>42121.029808816631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <f>'EPS,ROE,Market-to-Book'!B10</f>
+        <v>959596.35416666698</v>
+      </c>
+      <c r="C4" s="1">
+        <f>'EPS,ROE,Market-to-Book'!C10</f>
+        <v>746339.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1">
+        <f>'Interest Coverage, D to E'!B6</f>
+        <v>-230866</v>
+      </c>
+      <c r="C5" s="1">
+        <f>'Interest Coverage, D to E'!C6</f>
+        <v>69134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B4 + B5</f>
+        <v>728730.35416666698</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C4 + C5</f>
+        <v>815473.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B4</f>
+        <v>959596.35416666698</v>
+      </c>
+      <c r="C8" s="1">
+        <f>C4</f>
+        <v>746339.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1">
+        <f>'Balance Sheet'!B24</f>
+        <v>488362.87757515302</v>
+      </c>
+      <c r="C9" s="1">
+        <f>'Balance Sheet'!C24</f>
+        <v>188362.87757515299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="18">
+        <f>B8 / B9</f>
+        <v>1.9649248504130967</v>
+      </c>
+      <c r="C10" s="18">
+        <f>C8 / C9</f>
+        <v>3.9622414437909916</v>
       </c>
     </row>
   </sheetData>

--- a/Case/CS4/calculation.xlsx
+++ b/Case/CS4/calculation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN521/Case/CS4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park-wanbae/Desktop/MFE/2018-1/FIN521/Case/CS4/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6A027876-7677-5A44-8DAA-EF869DB9885D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="debt">Sheet1!$C$6</definedName>
     <definedName name="interest">Sheet1!$F$6</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -217,23 +218,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="166" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -278,8 +279,15 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -318,28 +326,31 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -607,24 +618,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -632,7 +643,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -640,7 +651,7 @@
         <v>0.30756086084350798</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -649,7 +660,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -664,7 +675,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -673,24 +684,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -702,7 +714,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
@@ -714,7 +726,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -727,7 +739,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -739,7 +751,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -751,7 +763,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -763,7 +775,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -777,13 +789,13 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -797,7 +809,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -809,7 +821,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -821,7 +833,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -835,13 +847,13 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -849,7 +861,7 @@
       <c r="C14" s="5"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -861,7 +873,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -873,7 +885,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -885,7 +897,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -899,13 +911,13 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="16" t="s">
         <v>29</v>
       </c>
@@ -916,7 +928,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -928,7 +940,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -940,7 +952,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
@@ -954,7 +966,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="15" t="s">
         <v>27</v>
       </c>
@@ -966,7 +978,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
@@ -981,24 +993,25 @@
       <c r="E25" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
@@ -1009,7 +1022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
         <v>32</v>
       </c>
@@ -1020,7 +1033,7 @@
         <v>342251.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -1031,7 +1044,7 @@
         <v>249793.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
@@ -1044,7 +1057,7 @@
         <v>92457.75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -1055,7 +1068,7 @@
         <v>28512</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1068,7 +1081,7 @@
         <v>63945.75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -1081,7 +1094,7 @@
         <v>9914</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
         <v>38</v>
       </c>
@@ -1094,12 +1107,12 @@
         <v>73859.75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
@@ -1112,7 +1125,7 @@
         <v>63945.75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -1124,7 +1137,7 @@
         <v>1805.6609999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1133,7 +1146,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1159,7 @@
         <v>59031.410999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1172,7 @@
         <v>18155.751583966925</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>40875.659416033071</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1183,35 +1196,34 @@
         <v>28345</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" s="13">
         <v>2006</v>
       </c>
@@ -1219,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>40875.659416033071</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1242,8 +1254,9 @@
       <c r="C3" s="1">
         <v>42121.029808816631</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1256,7 +1269,7 @@
         <v>0.97043352457344523</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>40875.659416033071</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v>188362.87757515299</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1295,7 +1308,7 @@
         <v>0.21700485755068435</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1306,7 +1319,7 @@
         <v>746339.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1319,7 +1332,7 @@
         <v>188362.87757515299</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1333,24 +1346,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="B1" s="13">
         <v>2006</v>
       </c>
@@ -1358,7 +1372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1371,7 +1385,7 @@
         <v>73859.75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +1397,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1392,7 +1406,7 @@
         <v>10.991034226190477</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1405,7 +1419,7 @@
         <v>69134</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1418,7 +1432,7 @@
         <v>188362.87757515299</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1432,24 +1446,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="B1" s="13">
         <v>2006</v>
       </c>
@@ -1457,7 +1472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1470,7 +1485,7 @@
         <v>40875.659416033071</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1498,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1497,22 +1512,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" s="13">
         <v>2006</v>
       </c>
@@ -1520,7 +1539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1533,7 +1552,7 @@
         <v>17.71892100899629</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1545,8 +1564,12 @@
         <f>'EPS,ROE,Market-to-Book'!C3</f>
         <v>42121.029808816631</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <f>B3 - 12000</f>
+        <v>47052.08333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1558,8 +1581,12 @@
         <f>'EPS,ROE,Market-to-Book'!C10</f>
         <v>746339.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f>C4 / D3</f>
+        <v>15.86197989816249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1572,7 +1599,7 @@
         <v>69134</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1585,7 +1612,7 @@
         <v>815473.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1598,7 +1625,7 @@
         <v>746339.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1611,7 +1638,7 @@
         <v>188362.87757515299</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1625,6 +1652,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>